--- a/nodes_source_analyses/energy/energy/energy_chp_supercritical_waste_mix.xlsx
+++ b/nodes_source_analyses/energy/energy/energy_chp_supercritical_waste_mix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlottevonm/Code/etdataset/nodes_source_analyses/energy/energy/AAA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Code/etdataset/nodes_source_analyses/energy/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A31240-FC52-5144-8A84-421868AA4D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6568D13-D062-2A4D-A3E4-BA717CE5D6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="1000" windowWidth="25600" windowHeight="17960" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9300" yWindow="1000" windowWidth="32300" windowHeight="22600" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="149">
   <si>
     <t>Source</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Initial investment costs per unit</t>
   </si>
   <si>
-    <t>Electricity output capacity per unit</t>
-  </si>
-  <si>
     <t xml:space="preserve">         Initial investment costs</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>technical_lifetime</t>
   </si>
   <si>
-    <t>electricity_output_capacity</t>
-  </si>
-  <si>
     <t>initial_investment</t>
   </si>
   <si>
@@ -307,31 +301,6 @@
   </si>
   <si>
     <t>part_load_operating_point</t>
-  </si>
-  <si>
-    <t>heat_output_capacity</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Heat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> output capacity per unit</t>
-    </r>
   </si>
   <si>
     <t>yes=1, no=0</t>
@@ -678,6 +647,12 @@
   </si>
   <si>
     <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
+  <si>
+    <t>Input capacity</t>
+  </si>
+  <si>
+    <t>typical_input_capacity</t>
   </si>
 </sst>
 </file>
@@ -1432,7 +1407,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1674,6 +1649,9 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="263">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2650,18 +2628,18 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="2.140625" style="50" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="50" customWidth="1"/>
+    <col min="1" max="1" width="2.1640625" style="50" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="50" customWidth="1"/>
     <col min="3" max="3" width="36" style="50" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="50"/>
+    <col min="4" max="16384" width="10.6640625" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" s="48" customFormat="1"/>
     <row r="2" spans="2:3" s="48" customFormat="1" ht="21">
       <c r="B2" s="44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:3" s="48" customFormat="1"/>
@@ -2670,20 +2648,20 @@
         <v>9</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="2:3" s="48" customFormat="1">
       <c r="B5" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:3" s="48" customFormat="1">
       <c r="B6" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="51" t="s">
         <v>11</v>
@@ -2692,7 +2670,7 @@
     <row r="7" spans="2:3" s="48" customFormat="1"/>
     <row r="8" spans="2:3" s="48" customFormat="1">
       <c r="B8" s="45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" s="49"/>
     </row>
@@ -2702,28 +2680,28 @@
     </row>
     <row r="10" spans="2:3" s="48" customFormat="1">
       <c r="B10" s="46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:3" s="48" customFormat="1" ht="17" thickBot="1">
       <c r="B11" s="46"/>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:3" s="48" customFormat="1" ht="17" thickBot="1">
       <c r="B12" s="46"/>
       <c r="C12" s="52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:3" s="48" customFormat="1">
       <c r="B13" s="46"/>
       <c r="C13" s="50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="2:3" s="48" customFormat="1">
@@ -2732,52 +2710,52 @@
     </row>
     <row r="15" spans="2:3" s="48" customFormat="1">
       <c r="B15" s="46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="2:3" s="48" customFormat="1">
       <c r="B16" s="46"/>
       <c r="C16" s="54" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:3" s="48" customFormat="1">
       <c r="B17" s="46"/>
       <c r="C17" s="55" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="2:3" s="48" customFormat="1">
       <c r="B18" s="46"/>
       <c r="C18" s="56" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="2:3" s="48" customFormat="1">
       <c r="B19" s="57"/>
       <c r="C19" s="58" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:3" s="48" customFormat="1">
       <c r="B20" s="57"/>
       <c r="C20" s="59" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="2:3" s="48" customFormat="1">
       <c r="B21" s="57"/>
       <c r="C21" s="60" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="2:3" s="48" customFormat="1">
       <c r="B22" s="57"/>
       <c r="C22" s="61" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2791,24 +2769,24 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K35"/>
+  <dimension ref="B1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="2.42578125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="2.140625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="45.140625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="2.140625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="46.140625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="2.140625" style="17" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="17"/>
+    <col min="1" max="2" width="2.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="45.5" style="17" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="2.1640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="45.1640625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="2.1640625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="46.1640625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="2.1640625" style="17" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -2816,7 +2794,7 @@
     </row>
     <row r="2" spans="2:11" ht="16" customHeight="1">
       <c r="B2" s="142" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C2" s="143"/>
       <c r="D2" s="143"/>
@@ -2893,7 +2871,7 @@
     <row r="10" spans="2:11" s="9" customFormat="1" ht="17" thickBot="1">
       <c r="B10" s="8"/>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="2"/>
@@ -2906,45 +2884,42 @@
     <row r="11" spans="2:11" ht="17" thickBot="1">
       <c r="B11" s="21"/>
       <c r="C11" s="28" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" s="62">
         <f>'Research data'!F6</f>
-        <v>60</v>
+        <v>222.2</v>
       </c>
       <c r="F11" s="24"/>
-      <c r="G11" s="24" t="s">
-        <v>19</v>
+      <c r="G11" s="151" t="s">
+        <v>147</v>
       </c>
       <c r="H11" s="24"/>
       <c r="I11" s="25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J11" s="22"/>
       <c r="K11" s="14"/>
     </row>
     <row r="12" spans="2:11" ht="17" thickBot="1">
       <c r="B12" s="21"/>
-      <c r="C12" s="28" t="s">
-        <v>82</v>
+      <c r="C12" s="63" t="s">
+        <v>74</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="62">
-        <f>'Research data'!F7</f>
-        <v>33.299999999999997</v>
+        <v>2</v>
+      </c>
+      <c r="E12" s="65">
+        <v>0.9</v>
       </c>
       <c r="F12" s="24"/>
-      <c r="G12" s="63" t="s">
-        <v>83</v>
-      </c>
+      <c r="G12" s="63"/>
       <c r="H12" s="24"/>
-      <c r="I12" s="25" t="s">
-        <v>27</v>
+      <c r="I12" s="69" t="s">
+        <v>25</v>
       </c>
       <c r="J12" s="22"/>
       <c r="K12" s="14"/>
@@ -2952,19 +2927,19 @@
     <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="B13" s="21"/>
       <c r="C13" s="63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="65">
-        <v>0.9</v>
+      <c r="E13" s="68">
+        <v>0</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="63"/>
       <c r="H13" s="24"/>
       <c r="I13" s="69" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="14"/>
@@ -2972,7 +2947,7 @@
     <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>2</v>
@@ -2984,7 +2959,7 @@
       <c r="G14" s="63"/>
       <c r="H14" s="24"/>
       <c r="I14" s="69" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J14" s="22"/>
       <c r="K14" s="14"/>
@@ -2998,102 +2973,104 @@
         <v>2</v>
       </c>
       <c r="E15" s="68">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="63"/>
       <c r="H15" s="24"/>
       <c r="I15" s="69" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J15" s="22"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1">
+    <row r="16" spans="2:11">
       <c r="B16" s="21"/>
       <c r="C16" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="68">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="63"/>
       <c r="H16" s="24"/>
       <c r="I16" s="69" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J16" s="22"/>
       <c r="K16" s="14"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="21"/>
-      <c r="C17" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="68">
-        <v>0.7</v>
-      </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="69" t="s">
-        <v>27</v>
-      </c>
+      <c r="C17" s="66"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
       <c r="J17" s="22"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" ht="17" thickBot="1">
       <c r="B18" s="21"/>
-      <c r="C18" s="66"/>
+      <c r="C18" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="D18" s="36"/>
-      <c r="E18" s="26"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="14"/>
       <c r="G18" s="37"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="I18" s="18"/>
       <c r="J18" s="22"/>
       <c r="K18" s="14"/>
     </row>
     <row r="19" spans="2:11" ht="17" thickBot="1">
       <c r="B19" s="21"/>
-      <c r="C19" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="18"/>
+      <c r="C19" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="40">
+        <f>'Research data'!F20</f>
+        <v>162000000</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="24"/>
+      <c r="I19" s="85" t="s">
+        <v>81</v>
+      </c>
       <c r="J19" s="22"/>
       <c r="K19" s="14"/>
     </row>
     <row r="20" spans="2:11" ht="17" thickBot="1">
       <c r="B20" s="21"/>
       <c r="C20" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="40">
+        <v>0</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="24"/>
+      <c r="I20" s="25" t="s">
         <v>25</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="40">
-        <f>'Research data'!F19</f>
-        <v>162000000</v>
-      </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="85" t="s">
-        <v>85</v>
       </c>
       <c r="J20" s="22"/>
       <c r="K20" s="14"/>
@@ -3101,21 +3078,21 @@
     <row r="21" spans="2:11" ht="17" thickBot="1">
       <c r="B21" s="21"/>
       <c r="C21" s="63" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="40">
+        <v>59</v>
+      </c>
+      <c r="E21" s="65">
         <v>0</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H21" s="24"/>
       <c r="I21" s="25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J21" s="22"/>
       <c r="K21" s="14"/>
@@ -3123,21 +3100,21 @@
     <row r="22" spans="2:11" ht="17" thickBot="1">
       <c r="B22" s="21"/>
       <c r="C22" s="63" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E22" s="65">
         <v>0</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="63" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H22" s="24"/>
       <c r="I22" s="25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J22" s="22"/>
       <c r="K22" s="14"/>
@@ -3145,21 +3122,22 @@
     <row r="23" spans="2:11" ht="17" thickBot="1">
       <c r="B23" s="21"/>
       <c r="C23" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E23" s="65">
-        <v>0</v>
+        <f>'Research data'!F23</f>
+        <v>4800000</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="25" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="J23" s="22"/>
       <c r="K23" s="14"/>
@@ -3167,22 +3145,21 @@
     <row r="24" spans="2:11" ht="17" thickBot="1">
       <c r="B24" s="21"/>
       <c r="C24" s="63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="65">
-        <f>'Research data'!F22</f>
-        <v>4800000</v>
+        <v>61</v>
+      </c>
+      <c r="E24" s="40">
+        <v>0</v>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="25" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J24" s="22"/>
       <c r="K24" s="14"/>
@@ -3190,217 +3167,195 @@
     <row r="25" spans="2:11" ht="17" thickBot="1">
       <c r="B25" s="21"/>
       <c r="C25" s="63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E25" s="40">
         <v>0</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H25" s="24"/>
       <c r="I25" s="25" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="J25" s="22"/>
       <c r="K25" s="14"/>
     </row>
     <row r="26" spans="2:11" ht="17" thickBot="1">
       <c r="B26" s="21"/>
-      <c r="C26" s="63" t="s">
+      <c r="C26" s="64" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="40">
-        <v>0</v>
+        <v>109</v>
+      </c>
+      <c r="E26" s="67">
+        <v>0.04</v>
       </c>
       <c r="F26" s="24"/>
-      <c r="G26" s="63" t="s">
-        <v>67</v>
+      <c r="G26" s="24" t="s">
+        <v>69</v>
       </c>
       <c r="H26" s="24"/>
-      <c r="I26" s="25" t="s">
-        <v>27</v>
+      <c r="I26" s="141" t="s">
+        <v>146</v>
       </c>
       <c r="J26" s="22"/>
       <c r="K26" s="14"/>
     </row>
     <row r="27" spans="2:11" ht="17" thickBot="1">
       <c r="B27" s="21"/>
-      <c r="C27" s="64" t="s">
-        <v>60</v>
+      <c r="C27" s="63" t="s">
+        <v>77</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" s="67">
-        <v>0.04</v>
+        <v>80</v>
+      </c>
+      <c r="E27" s="62">
+        <v>1</v>
       </c>
       <c r="F27" s="24"/>
-      <c r="G27" s="24" t="s">
-        <v>71</v>
-      </c>
+      <c r="G27" s="63"/>
       <c r="H27" s="24"/>
-      <c r="I27" s="141" t="s">
-        <v>150</v>
+      <c r="I27" s="140" t="s">
+        <v>25</v>
       </c>
       <c r="J27" s="22"/>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="2:11" ht="17" thickBot="1">
+    <row r="28" spans="2:11">
       <c r="B28" s="21"/>
-      <c r="C28" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="62">
-        <v>1</v>
-      </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="140" t="s">
-        <v>27</v>
-      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
       <c r="J28" s="22"/>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" ht="17" thickBot="1">
       <c r="B29" s="21"/>
-      <c r="C29" s="35"/>
+      <c r="C29" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="D29" s="36"/>
-      <c r="E29" s="27"/>
+      <c r="E29" s="39"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
+      <c r="I29" s="18"/>
       <c r="J29" s="22"/>
       <c r="K29" s="14"/>
     </row>
     <row r="30" spans="2:11" ht="17" thickBot="1">
       <c r="B30" s="21"/>
-      <c r="C30" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="36"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="18"/>
+      <c r="C30" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="70">
+        <f>'Research data'!F14</f>
+        <v>3.5</v>
+      </c>
+      <c r="F30" s="24"/>
+      <c r="G30" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="24"/>
+      <c r="I30" s="85" t="s">
+        <v>25</v>
+      </c>
       <c r="J30" s="22"/>
       <c r="K30" s="14"/>
     </row>
     <row r="31" spans="2:11" ht="17" thickBot="1">
       <c r="B31" s="21"/>
       <c r="C31" s="64" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E31" s="70">
+      <c r="E31" s="86">
         <f>'Research data'!F13</f>
-        <v>3.5</v>
+        <v>30</v>
       </c>
       <c r="F31" s="24"/>
-      <c r="G31" s="63" t="s">
-        <v>70</v>
+      <c r="G31" s="34" t="s">
+        <v>27</v>
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="85" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="J31" s="22"/>
       <c r="K31" s="14"/>
     </row>
     <row r="32" spans="2:11" ht="17" thickBot="1">
       <c r="B32" s="21"/>
-      <c r="C32" s="64" t="s">
-        <v>23</v>
+      <c r="C32" s="28" t="s">
+        <v>71</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="86">
-        <f>'Research data'!F12</f>
-        <v>30</v>
+        <v>72</v>
+      </c>
+      <c r="E32" s="62">
+        <f>'Research data'!F15</f>
+        <v>0.1</v>
       </c>
       <c r="F32" s="24"/>
-      <c r="G32" s="34" t="s">
-        <v>29</v>
+      <c r="G32" s="63" t="s">
+        <v>73</v>
       </c>
       <c r="H32" s="24"/>
       <c r="I32" s="85" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="J32" s="22"/>
       <c r="K32" s="14"/>
     </row>
     <row r="33" spans="2:11" ht="17" thickBot="1">
       <c r="B33" s="21"/>
-      <c r="C33" s="28" t="s">
-        <v>73</v>
+      <c r="C33" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="62">
-        <f>'Research data'!F14</f>
-        <v>0.1</v>
+        <v>2</v>
+      </c>
+      <c r="E33" s="41">
+        <v>0</v>
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="63" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H33" s="24"/>
-      <c r="I33" s="85" t="s">
-        <v>112</v>
+      <c r="I33" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="J33" s="22"/>
       <c r="K33" s="14"/>
     </row>
     <row r="34" spans="2:11" ht="17" thickBot="1">
-      <c r="B34" s="21"/>
-      <c r="C34" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="41">
-        <v>0</v>
-      </c>
-      <c r="F34" s="24"/>
-      <c r="G34" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="H34" s="24"/>
-      <c r="I34" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="J34" s="22"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="29"/>
       <c r="K34" s="14"/>
-    </row>
-    <row r="35" spans="2:11" ht="17" thickBot="1">
-      <c r="B35" s="23"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3416,32 +3371,32 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:R28"/>
+  <dimension ref="B1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="2.140625" style="79" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" style="79" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="79" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" style="79" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="79" customWidth="1"/>
-    <col min="7" max="7" width="2.140625" style="79" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="79" customWidth="1"/>
-    <col min="9" max="9" width="2.140625" style="79" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="79" customWidth="1"/>
-    <col min="11" max="11" width="3.28515625" style="79" customWidth="1"/>
+    <col min="1" max="2" width="2.1640625" style="79" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" style="79" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="79" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="79" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="79" customWidth="1"/>
+    <col min="7" max="7" width="2.1640625" style="79" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="79" customWidth="1"/>
+    <col min="9" max="9" width="2.1640625" style="79" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="79" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="79" customWidth="1"/>
     <col min="12" max="12" width="9" style="79" customWidth="1"/>
-    <col min="13" max="13" width="2.140625" style="79" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="79" customWidth="1"/>
-    <col min="15" max="15" width="2.140625" style="79" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" style="79" customWidth="1"/>
-    <col min="17" max="17" width="2.140625" style="79" customWidth="1"/>
-    <col min="18" max="18" width="70.85546875" style="79" customWidth="1"/>
-    <col min="19" max="16384" width="10.7109375" style="79"/>
+    <col min="13" max="13" width="2.1640625" style="79" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="79" customWidth="1"/>
+    <col min="15" max="15" width="2.1640625" style="79" customWidth="1"/>
+    <col min="16" max="16" width="7.5" style="79" customWidth="1"/>
+    <col min="17" max="17" width="2.1640625" style="79" customWidth="1"/>
+    <col min="18" max="18" width="70.83203125" style="79" customWidth="1"/>
+    <col min="19" max="16384" width="10.6640625" style="79"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="17" thickBot="1"/>
@@ -3467,34 +3422,34 @@
     <row r="3" spans="2:18" s="9" customFormat="1">
       <c r="B3" s="8"/>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4" t="s">
@@ -3523,7 +3478,7 @@
     <row r="5" spans="2:18" ht="17" thickBot="1">
       <c r="B5" s="73"/>
       <c r="C5" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="66"/>
@@ -3543,46 +3498,46 @@
     <row r="6" spans="2:18" ht="17" thickBot="1">
       <c r="B6" s="73"/>
       <c r="C6" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="152" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="80">
+        <f>ROUND(F7/F9,1)</f>
+        <v>222.2</v>
+      </c>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+    </row>
+    <row r="7" spans="2:18" ht="17" thickBot="1">
+      <c r="B7" s="73"/>
+      <c r="C7" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="78">
+      <c r="D7" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="77"/>
+      <c r="F7" s="78">
         <f>ROUND(60,0)</f>
         <v>60</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="78">
+      <c r="G7" s="66"/>
+      <c r="H7" s="78">
         <v>60</v>
       </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="82"/>
-    </row>
-    <row r="7" spans="2:18" ht="17" thickBot="1">
-      <c r="B7" s="73"/>
-      <c r="C7" s="127" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="122" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="77"/>
-      <c r="F7" s="78">
-        <f>ROUND(33.3,1)</f>
-        <v>33.299999999999997</v>
-      </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="88"/>
       <c r="I7" s="66"/>
       <c r="J7" s="88"/>
       <c r="K7" s="66"/>
@@ -3596,22 +3551,19 @@
     </row>
     <row r="8" spans="2:18" ht="17" thickBot="1">
       <c r="B8" s="73"/>
-      <c r="C8" s="121" t="s">
-        <v>119</v>
+      <c r="C8" s="127" t="s">
+        <v>117</v>
       </c>
       <c r="D8" s="122" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="E8" s="77"/>
       <c r="F8" s="78">
-        <f>ROUND(27,1)</f>
-        <v>27</v>
+        <f>ROUND(33.3,1)</f>
+        <v>33.299999999999997</v>
       </c>
       <c r="G8" s="66"/>
-      <c r="H8" s="78">
-        <f>Notes!D20</f>
-        <v>27</v>
-      </c>
+      <c r="H8" s="88"/>
       <c r="I8" s="66"/>
       <c r="J8" s="88"/>
       <c r="K8" s="66"/>
@@ -3621,180 +3573,188 @@
       <c r="O8" s="88"/>
       <c r="P8" s="88"/>
       <c r="Q8" s="66"/>
-      <c r="R8" s="128"/>
+      <c r="R8" s="82"/>
     </row>
     <row r="9" spans="2:18" ht="17" thickBot="1">
       <c r="B9" s="73"/>
-      <c r="C9" s="125" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="126" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="66"/>
-      <c r="F9" s="123">
-        <f>ROUND(15,1)</f>
-        <v>15</v>
+      <c r="C9" s="121" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="122" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="77"/>
+      <c r="F9" s="153">
+        <f>H9/100</f>
+        <v>0.27</v>
       </c>
       <c r="G9" s="66"/>
-      <c r="H9" s="85">
+      <c r="H9" s="78">
+        <f>Notes!D20</f>
+        <v>27</v>
+      </c>
+      <c r="I9" s="66"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="128"/>
+    </row>
+    <row r="10" spans="2:18" ht="17" thickBot="1">
+      <c r="B10" s="73"/>
+      <c r="C10" s="125" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="126" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="66"/>
+      <c r="F10" s="123">
+        <f>H10/100</f>
+        <v>0.15</v>
+      </c>
+      <c r="G10" s="66"/>
+      <c r="H10" s="85">
         <f>Notes!D21</f>
         <v>15</v>
       </c>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="63"/>
-    </row>
-    <row r="10" spans="2:18">
-      <c r="B10" s="73"/>
-      <c r="R10" s="128"/>
-    </row>
-    <row r="11" spans="2:18" ht="17" thickBot="1">
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="63"/>
+    </row>
+    <row r="11" spans="2:18">
       <c r="B11" s="73"/>
-      <c r="C11" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="63"/>
+      <c r="R11" s="128"/>
     </row>
     <row r="12" spans="2:18" ht="17" thickBot="1">
       <c r="B12" s="73"/>
-      <c r="C12" s="121" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="77"/>
-      <c r="F12" s="78">
-        <f>ROUND(30,0)</f>
-        <v>30</v>
-      </c>
+      <c r="C12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="66"/>
       <c r="G12" s="66"/>
-      <c r="H12" s="88"/>
+      <c r="H12" s="66"/>
       <c r="I12" s="66"/>
-      <c r="J12" s="78">
-        <f>Notes!E70</f>
-        <v>30</v>
-      </c>
+      <c r="J12" s="66"/>
       <c r="K12" s="66"/>
-      <c r="L12" s="78">
-        <f>Notes!$E$53</f>
-        <v>20</v>
-      </c>
+      <c r="L12" s="66"/>
       <c r="M12" s="66"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="119"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
       <c r="Q12" s="66"/>
-      <c r="R12" s="81"/>
+      <c r="R12" s="63"/>
     </row>
     <row r="13" spans="2:18" ht="17" thickBot="1">
       <c r="B13" s="73"/>
       <c r="C13" s="121" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D13" s="76" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="77"/>
-      <c r="F13" s="80">
-        <f>ROUND(3.5,1)</f>
-        <v>3.5</v>
+      <c r="F13" s="78">
+        <f>ROUND(30,0)</f>
+        <v>30</v>
       </c>
       <c r="G13" s="66"/>
       <c r="H13" s="88"/>
       <c r="I13" s="66"/>
-      <c r="J13" s="88"/>
+      <c r="J13" s="78">
+        <f>Notes!E70</f>
+        <v>30</v>
+      </c>
       <c r="K13" s="66"/>
-      <c r="L13" s="80">
-        <f>Notes!$E$47</f>
-        <v>2.5</v>
+      <c r="L13" s="78">
+        <f>Notes!$E$53</f>
+        <v>20</v>
       </c>
       <c r="M13" s="66"/>
-      <c r="N13" s="120"/>
+      <c r="N13" s="119"/>
       <c r="O13" s="88"/>
-      <c r="P13" s="120"/>
+      <c r="P13" s="119"/>
       <c r="Q13" s="66"/>
       <c r="R13" s="81"/>
     </row>
     <row r="14" spans="2:18" ht="17" thickBot="1">
       <c r="B14" s="73"/>
       <c r="C14" s="121" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D14" s="76" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="E14" s="77"/>
       <c r="F14" s="80">
-        <f>ROUND(0.1,1)</f>
-        <v>0.1</v>
+        <f>ROUND(3.5,1)</f>
+        <v>3.5</v>
       </c>
       <c r="G14" s="66"/>
       <c r="H14" s="88"/>
       <c r="I14" s="66"/>
       <c r="J14" s="88"/>
       <c r="K14" s="66"/>
-      <c r="L14" s="88"/>
+      <c r="L14" s="80">
+        <f>Notes!$E$47</f>
+        <v>2.5</v>
+      </c>
       <c r="M14" s="66"/>
-      <c r="N14" s="118">
-        <f>248*501/1000000</f>
-        <v>0.124248</v>
-      </c>
+      <c r="N14" s="120"/>
       <c r="O14" s="88"/>
-      <c r="P14" s="118">
-        <f>401*281/1000000</f>
-        <v>0.112681</v>
-      </c>
+      <c r="P14" s="120"/>
       <c r="Q14" s="66"/>
-      <c r="R14" s="81" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18">
+      <c r="R14" s="81"/>
+    </row>
+    <row r="15" spans="2:18" ht="17" thickBot="1">
       <c r="B15" s="73"/>
+      <c r="C15" s="121" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="77"/>
+      <c r="F15" s="80">
+        <f>ROUND(0.1,1)</f>
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="66"/>
+      <c r="H15" s="88"/>
       <c r="I15" s="66"/>
       <c r="J15" s="88"/>
       <c r="K15" s="66"/>
       <c r="L15" s="88"/>
       <c r="M15" s="66"/>
-      <c r="N15" s="88"/>
+      <c r="N15" s="118">
+        <f>248*501/1000000</f>
+        <v>0.124248</v>
+      </c>
       <c r="O15" s="88"/>
-      <c r="P15" s="88"/>
+      <c r="P15" s="118">
+        <f>401*281/1000000</f>
+        <v>0.112681</v>
+      </c>
       <c r="Q15" s="66"/>
-      <c r="R15" s="82" t="s">
-        <v>89</v>
+      <c r="R15" s="81" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="2:18">
       <c r="B16" s="73"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="88"/>
       <c r="I16" s="66"/>
       <c r="J16" s="88"/>
       <c r="K16" s="66"/>
@@ -3805,7 +3765,7 @@
       <c r="P16" s="88"/>
       <c r="Q16" s="66"/>
       <c r="R16" s="82" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="2:18">
@@ -3825,53 +3785,45 @@
       <c r="O17" s="88"/>
       <c r="P17" s="88"/>
       <c r="Q17" s="66"/>
-      <c r="R17" s="82"/>
-    </row>
-    <row r="18" spans="2:18" ht="17" thickBot="1">
+      <c r="R17" s="82" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18">
       <c r="B18" s="73"/>
-      <c r="C18" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="66"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="88"/>
       <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
+      <c r="H18" s="88"/>
       <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
+      <c r="J18" s="88"/>
       <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
+      <c r="L18" s="88"/>
       <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="88"/>
+      <c r="P18" s="88"/>
       <c r="Q18" s="66"/>
-      <c r="R18" s="63"/>
+      <c r="R18" s="82"/>
     </row>
     <row r="19" spans="2:18" ht="17" thickBot="1">
       <c r="B19" s="73"/>
-      <c r="C19" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="74"/>
-      <c r="F19" s="78">
-        <f>ROUND(F20*F6*1000,2)</f>
-        <v>162000000</v>
-      </c>
+      <c r="C19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="66"/>
       <c r="G19" s="66"/>
-      <c r="H19" s="78">
-        <f>H20*H6*1000</f>
-        <v>162000000</v>
-      </c>
+      <c r="H19" s="66"/>
       <c r="I19" s="66"/>
-      <c r="J19" s="83"/>
+      <c r="J19" s="66"/>
       <c r="K19" s="66"/>
-      <c r="L19" s="83"/>
+      <c r="L19" s="66"/>
       <c r="M19" s="66"/>
-      <c r="N19" s="83"/>
+      <c r="N19" s="66"/>
       <c r="O19" s="66"/>
       <c r="P19" s="66"/>
       <c r="Q19" s="66"/>
@@ -3880,77 +3832,80 @@
     <row r="20" spans="2:18" ht="17" thickBot="1">
       <c r="B20" s="73"/>
       <c r="C20" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="129" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="D20" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="74"/>
       <c r="F20" s="78">
+        <f>ROUND(F21*F7*1000,2)</f>
+        <v>162000000</v>
+      </c>
+      <c r="G20" s="66"/>
+      <c r="H20" s="78">
+        <f>H21*H7*1000</f>
+        <v>162000000</v>
+      </c>
+      <c r="I20" s="66"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="63"/>
+    </row>
+    <row r="21" spans="2:18" ht="17" thickBot="1">
+      <c r="B21" s="73"/>
+      <c r="C21" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="129" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="78">
         <v>2700</v>
       </c>
-      <c r="G20" s="66"/>
-      <c r="H20" s="85">
+      <c r="G21" s="66"/>
+      <c r="H21" s="85">
         <f>Notes!D19</f>
         <v>2700</v>
-      </c>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="83"/>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="134" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" ht="17" thickBot="1">
-      <c r="B21" s="73"/>
-      <c r="C21" s="130" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="78">
-        <f>F22+F25</f>
-        <v>4800000</v>
-      </c>
-      <c r="G21" s="66"/>
-      <c r="H21" s="85">
-        <f>Notes!D37</f>
-        <v>4800000</v>
       </c>
       <c r="I21" s="66"/>
       <c r="J21" s="66"/>
       <c r="K21" s="66"/>
       <c r="L21" s="66"/>
       <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="83"/>
       <c r="Q21" s="66"/>
-      <c r="R21" s="63"/>
+      <c r="R21" s="134" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="22" spans="2:18" ht="17" thickBot="1">
       <c r="B22" s="73"/>
-      <c r="C22" s="89" t="s">
-        <v>115</v>
+      <c r="C22" s="130" t="s">
+        <v>123</v>
       </c>
       <c r="D22" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="90"/>
+        <v>59</v>
+      </c>
+      <c r="E22" s="11"/>
       <c r="F22" s="78">
-        <f>ROUND(F23*F6*1000,2)</f>
+        <f>F23+F26</f>
         <v>4800000</v>
       </c>
       <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
+      <c r="H22" s="85">
+        <f>Notes!D37</f>
+        <v>4800000</v>
+      </c>
       <c r="I22" s="66"/>
       <c r="J22" s="66"/>
       <c r="K22" s="66"/>
@@ -3960,21 +3915,20 @@
       <c r="O22" s="66"/>
       <c r="P22" s="66"/>
       <c r="Q22" s="66"/>
-      <c r="R22" s="132" t="s">
-        <v>122</v>
-      </c>
+      <c r="R22" s="63"/>
     </row>
     <row r="23" spans="2:18" ht="17" thickBot="1">
       <c r="B23" s="73"/>
       <c r="C23" s="89" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="130" t="s">
-        <v>124</v>
+        <v>111</v>
+      </c>
+      <c r="D23" s="75" t="s">
+        <v>60</v>
       </c>
       <c r="E23" s="90"/>
       <c r="F23" s="78">
-        <v>80</v>
+        <f>ROUND(F24*F7*1000,2)</f>
+        <v>4800000</v>
       </c>
       <c r="G23" s="66"/>
       <c r="H23" s="66"/>
@@ -3987,21 +3941,21 @@
       <c r="O23" s="66"/>
       <c r="P23" s="66"/>
       <c r="Q23" s="66"/>
-      <c r="R23" s="82" t="s">
-        <v>93</v>
+      <c r="R23" s="132" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="2:18" ht="17" thickBot="1">
       <c r="B24" s="73"/>
       <c r="C24" s="89" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="76" t="s">
-        <v>63</v>
+        <v>111</v>
+      </c>
+      <c r="D24" s="130" t="s">
+        <v>120</v>
       </c>
       <c r="E24" s="90"/>
       <c r="F24" s="78">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G24" s="66"/>
       <c r="H24" s="66"/>
@@ -4014,17 +3968,19 @@
       <c r="O24" s="66"/>
       <c r="P24" s="66"/>
       <c r="Q24" s="66"/>
-      <c r="R24" s="6"/>
+      <c r="R24" s="82" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="25" spans="2:18" ht="17" thickBot="1">
       <c r="B25" s="73"/>
       <c r="C25" s="89" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="D25" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="91"/>
+        <v>61</v>
+      </c>
+      <c r="E25" s="90"/>
       <c r="F25" s="78">
         <v>0</v>
       </c>
@@ -4044,10 +4000,10 @@
     <row r="26" spans="2:18" ht="17" thickBot="1">
       <c r="B26" s="73"/>
       <c r="C26" s="89" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="129" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="D26" s="76" t="s">
+        <v>60</v>
       </c>
       <c r="E26" s="91"/>
       <c r="F26" s="78">
@@ -4068,15 +4024,15 @@
     </row>
     <row r="27" spans="2:18" ht="17" thickBot="1">
       <c r="B27" s="73"/>
-      <c r="C27" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" s="63" t="s">
-        <v>94</v>
+      <c r="C27" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="129" t="s">
+        <v>121</v>
       </c>
       <c r="E27" s="91"/>
       <c r="F27" s="78">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="G27" s="66"/>
       <c r="H27" s="66"/>
@@ -4093,16 +4049,15 @@
     </row>
     <row r="28" spans="2:18" ht="17" thickBot="1">
       <c r="B28" s="73"/>
-      <c r="C28" s="132" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" s="131" t="s">
-        <v>126</v>
+      <c r="C28" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="63" t="s">
+        <v>90</v>
       </c>
       <c r="E28" s="91"/>
       <c r="F28" s="78">
-        <f>F27*F6</f>
-        <v>360000</v>
+        <v>6000</v>
       </c>
       <c r="G28" s="66"/>
       <c r="H28" s="66"/>
@@ -4117,8 +4072,34 @@
       <c r="Q28" s="66"/>
       <c r="R28" s="6"/>
     </row>
+    <row r="29" spans="2:18" ht="17" thickBot="1">
+      <c r="B29" s="73"/>
+      <c r="C29" s="132" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="131" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="91"/>
+      <c r="F29" s="78">
+        <f>F28*F7</f>
+        <v>360000</v>
+      </c>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="66"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="66"/>
+      <c r="R29" s="6"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="R23">
+  <conditionalFormatting sqref="R24">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4129,9 +4110,9 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="R23" r:id="rId1" location="issuecomment-18284357" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="R15:R16" r:id="rId2" display="Google maps" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="R14:R15" r:id="rId3" display="Google maps" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="R24" r:id="rId1" location="issuecomment-18284357" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="R16:R17" r:id="rId2" display="Google maps" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="R15:R16" r:id="rId3" display="Google maps" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4149,18 +4130,18 @@
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="93" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="93" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="93" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="93" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="93" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="93" customWidth="1"/>
-    <col min="7" max="9" width="12.140625" style="93" customWidth="1"/>
-    <col min="10" max="10" width="32.7109375" style="94" customWidth="1"/>
-    <col min="11" max="11" width="105.42578125" style="93" customWidth="1"/>
-    <col min="12" max="16384" width="33.140625" style="93"/>
+    <col min="1" max="1" width="10.1640625" style="93" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="93" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="93" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="93" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" style="93" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="93" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" style="93" customWidth="1"/>
+    <col min="10" max="10" width="32.6640625" style="94" customWidth="1"/>
+    <col min="11" max="11" width="105.5" style="93" customWidth="1"/>
+    <col min="12" max="16384" width="33.1640625" style="93"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
@@ -4218,13 +4199,13 @@
         <v>15</v>
       </c>
       <c r="H5" s="104" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I5" s="104" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J5" s="105" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K5" s="104" t="s">
         <v>8</v>
@@ -4247,29 +4228,29 @@
       <c r="C7" s="106"/>
       <c r="D7" s="106"/>
       <c r="E7" s="101" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F7" s="101" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G7" s="102" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="102" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="102"/>
       <c r="J7" s="102" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K7" s="107" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="98"/>
       <c r="C8" s="108" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D8" s="109"/>
       <c r="E8" s="101"/>
@@ -4297,29 +4278,29 @@
       <c r="C10" s="106"/>
       <c r="D10" s="106"/>
       <c r="E10" s="106" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F10" s="111" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" s="112">
         <v>2000</v>
       </c>
       <c r="H10" s="112" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I10" s="113"/>
       <c r="J10" s="112" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K10" s="114" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="98"/>
       <c r="C11" s="115" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D11" s="116"/>
       <c r="E11" s="106"/>
@@ -4347,27 +4328,27 @@
       <c r="C13" s="106"/>
       <c r="D13" s="106"/>
       <c r="E13" s="106" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F13" s="101" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="102" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H13" s="102" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I13" s="102"/>
       <c r="J13" s="102" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K13" s="114"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="98"/>
       <c r="C14" s="110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="106"/>
       <c r="E14" s="106"/>
@@ -4381,7 +4362,7 @@
     <row r="15" spans="2:11">
       <c r="B15" s="98"/>
       <c r="C15" s="110" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D15" s="106"/>
       <c r="E15" s="106"/>
@@ -4409,7 +4390,7 @@
       <c r="C17" s="106"/>
       <c r="D17" s="106"/>
       <c r="E17" s="106" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F17" s="101" t="s">
         <v>5</v>
@@ -4418,18 +4399,18 @@
         <v>2013</v>
       </c>
       <c r="H17" s="102" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I17" s="102"/>
       <c r="J17" s="102"/>
       <c r="K17" s="114" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="98"/>
       <c r="C18" s="110" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D18" s="106"/>
       <c r="E18" s="106"/>
@@ -4443,7 +4424,7 @@
     <row r="19" spans="2:11">
       <c r="B19" s="98"/>
       <c r="C19" s="110" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D19" s="106"/>
       <c r="E19" s="101"/>
@@ -4471,7 +4452,7 @@
       <c r="C21" s="106"/>
       <c r="D21" s="106"/>
       <c r="E21" s="93" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F21" s="106" t="s">
         <v>5</v>
@@ -4479,21 +4460,21 @@
       <c r="G21" s="106"/>
       <c r="H21" s="106"/>
       <c r="I21" s="106" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J21" s="117"/>
       <c r="K21" s="114" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="98"/>
       <c r="C22" s="110" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D22" s="106"/>
       <c r="E22" s="101" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F22" s="106"/>
       <c r="G22" s="106"/>
@@ -4519,7 +4500,7 @@
       <c r="C24" s="106"/>
       <c r="D24" s="106"/>
       <c r="E24" s="101" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F24" s="106" t="s">
         <v>5</v>
@@ -4527,21 +4508,21 @@
       <c r="G24" s="106"/>
       <c r="H24" s="106"/>
       <c r="I24" s="106" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J24" s="117"/>
       <c r="K24" s="114" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="98"/>
       <c r="C25" s="110" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D25" s="106"/>
       <c r="E25" s="101" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F25" s="106"/>
       <c r="G25" s="106"/>
@@ -4573,11 +4554,11 @@
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="133" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="133" customWidth="1"/>
-    <col min="3" max="16384" width="10.7109375" style="133"/>
+    <col min="1" max="1" width="6.33203125" style="133" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="133" customWidth="1"/>
+    <col min="3" max="16384" width="10.6640625" style="133"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="17" thickBot="1"/>
@@ -4602,7 +4583,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -4648,7 +4629,7 @@
     <row r="6" spans="2:14">
       <c r="B6" s="137"/>
       <c r="C6" s="138" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D6" s="138"/>
       <c r="E6" s="138"/>
@@ -4665,7 +4646,7 @@
     <row r="7" spans="2:14">
       <c r="B7" s="137"/>
       <c r="C7" s="138" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D7" s="138"/>
       <c r="E7" s="138"/>
@@ -4851,7 +4832,7 @@
         <v>2700</v>
       </c>
       <c r="E19" s="138" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F19" s="138"/>
       <c r="G19" s="138"/>
@@ -4870,7 +4851,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="138" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F20" s="138"/>
       <c r="G20" s="138"/>
@@ -4889,7 +4870,7 @@
         <v>15</v>
       </c>
       <c r="E21" s="138" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F21" s="138"/>
       <c r="G21" s="138"/>
@@ -4934,7 +4915,7 @@
     <row r="24" spans="2:14">
       <c r="B24" s="137"/>
       <c r="C24" s="138" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D24" s="138"/>
       <c r="E24" s="138"/>
@@ -5135,7 +5116,7 @@
         <v>4800000</v>
       </c>
       <c r="E37" s="138" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F37" s="138"/>
       <c r="G37" s="138"/>
@@ -5210,7 +5191,7 @@
     <row r="42" spans="2:14">
       <c r="B42" s="137"/>
       <c r="C42" s="138" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D42" s="138"/>
       <c r="E42" s="138"/>
@@ -5227,7 +5208,7 @@
     <row r="43" spans="2:14">
       <c r="B43" s="137"/>
       <c r="C43" s="138" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D43" s="138"/>
       <c r="E43" s="138"/>
@@ -5294,7 +5275,7 @@
         <v>2.5</v>
       </c>
       <c r="F47" s="138" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G47" s="138"/>
       <c r="H47" s="138"/>
@@ -5388,7 +5369,7 @@
         <v>20</v>
       </c>
       <c r="F53" s="138" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G53" s="138"/>
       <c r="H53" s="138"/>
@@ -5507,7 +5488,7 @@
     <row r="61" spans="2:14">
       <c r="B61" s="137"/>
       <c r="C61" s="138" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D61" s="138"/>
       <c r="E61" s="138"/>
@@ -5524,7 +5505,7 @@
     <row r="62" spans="2:14">
       <c r="B62" s="137"/>
       <c r="C62" s="138" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D62" s="138"/>
       <c r="E62" s="138"/>
@@ -5651,7 +5632,7 @@
         <v>30</v>
       </c>
       <c r="F70" s="138" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G70" s="138"/>
       <c r="H70" s="138"/>
